--- a/data/trans_dic/P70C1_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70C1_R_2023-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2655631546157688</v>
+        <v>0.2655631546157687</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2266196689988943</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2119548953534059</v>
+        <v>0.2157748949521117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1876108523508865</v>
+        <v>0.187740348509616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2115941756797169</v>
+        <v>0.2111625687537225</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3236206816001244</v>
+        <v>0.3252549237447856</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2710109662690771</v>
+        <v>0.2757893530829604</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2851159395789593</v>
+        <v>0.2835440888136742</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1568163504180297</v>
+        <v>0.1545801644002636</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2389070652597814</v>
+        <v>0.2420916278623931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1995321006871504</v>
+        <v>0.2012560736527574</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2317582939505005</v>
+        <v>0.2332647097961151</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3171237710896536</v>
+        <v>0.3184652207427933</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2547148975980914</v>
+        <v>0.2553496069132156</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1327946096755264</v>
+        <v>0.1262282412909194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2257986409718848</v>
+        <v>0.226910141915961</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1830466224142912</v>
+        <v>0.1814746005029195</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2229440201589841</v>
+        <v>0.2161995004116966</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3140862260059928</v>
+        <v>0.3125222209893642</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2458039322223722</v>
+        <v>0.2483446023106194</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1936708109275579</v>
+        <v>0.1936708109275578</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2641417881576997</v>
+        <v>0.2641417881576996</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2263845382234782</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1577565003449251</v>
+        <v>0.1587885329357365</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.226302013975333</v>
+        <v>0.2276440780200077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2002122996042318</v>
+        <v>0.1987024621969463</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2315457298077483</v>
+        <v>0.2314919295211896</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2995896055319989</v>
+        <v>0.3001025414036718</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2550346918541905</v>
+        <v>0.252342199108727</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1808064726471526</v>
+        <v>0.1796153316902268</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2434921103023666</v>
+        <v>0.2428686147434579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2142197952292163</v>
+        <v>0.2129969065655447</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2222681493276789</v>
+        <v>0.221931203979573</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2838423813881585</v>
+        <v>0.2842514003292481</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2445528085365492</v>
+        <v>0.2449753159911002</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>76880</v>
+        <v>78266</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51472</v>
+        <v>51508</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>134801</v>
+        <v>134526</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>117384</v>
+        <v>117976</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>74353</v>
+        <v>75664</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>181640</v>
+        <v>180639</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>97297</v>
+        <v>95910</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>106025</v>
+        <v>107439</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>212352</v>
+        <v>214186</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>143795</v>
+        <v>144730</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>140737</v>
+        <v>141333</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>271080</v>
+        <v>271755</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55298</v>
+        <v>52564</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>75452</v>
+        <v>75824</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>137390</v>
+        <v>136210</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>92838</v>
+        <v>90029</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>104954</v>
+        <v>104432</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>184495</v>
+        <v>186401</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>80520</v>
+        <v>81047</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>100077</v>
+        <v>100671</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>190730</v>
+        <v>189292</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>118183</v>
+        <v>118156</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>132487</v>
+        <v>132714</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>242956</v>
+        <v>240391</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>345341</v>
+        <v>343065</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>363908</v>
+        <v>362976</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>729319</v>
+        <v>725156</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>424532</v>
+        <v>423889</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>424213</v>
+        <v>424824</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>832589</v>
+        <v>834028</v>
       </c>
     </row>
     <row r="24">
